--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\GitHub\learn_tester\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Версия ОС</t>
   </si>
@@ -42,7 +50,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -51,7 +59,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -96,7 +104,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -154,7 +162,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -212,7 +220,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -277,7 +285,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -348,7 +356,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -384,39 +392,41 @@
   <si>
     <t>1. В блоке визуализации маршрута кликнуть по кнопке «Get link to route».                        ОР: Откроется форма со ссылкой на маршрут.                                                                             
 2. Скопировать и открыть ссылку в новой вкладке.                                                               ОР: Откроется построенный маршрут.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed </t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> при выборе станции цвет кружка становится серым. Во всех случаях.</t>
+  </si>
+  <si>
+    <t>кружки при выборе становятся серыми, а не оставляют свой цвет</t>
+  </si>
+  <si>
+    <t>при открытии скопированной ссылки открывается карта Москвы, а не нужны маршрут в Сан-Франциско</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -427,15 +437,39 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="Helvetica"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -597,98 +631,161 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff333d46"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF333D46"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Тема Office">
       <a:dk1>
@@ -890,7 +987,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -909,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,9 +1257,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1179,7 +1282,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1198,7 +1301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,9 +1548,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1461,7 +1570,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1480,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1562,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1614,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1640,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1666,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1692,7 +1801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1718,7 +1827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,229 +1840,257 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
-    <row r="3" ht="96" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
-    <row r="4" ht="160" customHeight="1">
-      <c r="A4" t="s" s="13">
+    <row r="4" spans="1:9" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="14"/>
     </row>
-    <row r="5" ht="234.55" customHeight="1">
-      <c r="A5" t="s" s="13">
+    <row r="5" spans="1:9" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="14"/>
     </row>
-    <row r="6" ht="256" customHeight="1">
-      <c r="A6" t="s" s="13">
+    <row r="6" spans="1:9" ht="255.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="14"/>
     </row>
-    <row r="7" ht="169.55" customHeight="1">
-      <c r="A7" t="s" s="13">
+    <row r="7" spans="1:9" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="14">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s" s="15">
+      <c r="F7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="14"/>
     </row>
-    <row r="8" ht="160" customHeight="1">
-      <c r="A8" t="s" s="13">
+    <row r="8" spans="1:9" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s" s="14">
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s" s="15">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
-    <hyperlink ref="D4" r:id="rId2" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
-    <hyperlink ref="D5" r:id="rId3" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
-    <hyperlink ref="D6" r:id="rId4" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=ru"/>
-    <hyperlink ref="D7" r:id="rId5" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
-    <hyperlink ref="D8" r:id="rId6" location="" tooltip="" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=ru"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://qa-metro.stand-2.praktikum-services.ru/san-francisco?lang=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
